--- a/lib/test/output/vol_forecasting_ridge.xlsx
+++ b/lib/test/output/vol_forecasting_ridge.xlsx
@@ -28,76 +28,76 @@
     <t>RANDOM_FOREST</t>
   </si>
   <si>
-    <t>0,014957</t>
-  </si>
-  <si>
-    <t>0,014882</t>
-  </si>
-  <si>
-    <t>0,015250</t>
-  </si>
-  <si>
-    <t>0,012597</t>
-  </si>
-  <si>
-    <t>0,015081</t>
-  </si>
-  <si>
-    <t>0,014734</t>
-  </si>
-  <si>
-    <t>0,049003</t>
-  </si>
-  <si>
-    <t>0,049564</t>
-  </si>
-  <si>
-    <t>0,047353</t>
-  </si>
-  <si>
-    <t>0,048089</t>
+    <t>0,014780</t>
+  </si>
+  <si>
+    <t>0,014807</t>
+  </si>
+  <si>
+    <t>0,015247</t>
+  </si>
+  <si>
+    <t>0,015213</t>
+  </si>
+  <si>
+    <t>0,015080</t>
+  </si>
+  <si>
+    <t>0,014729</t>
+  </si>
+  <si>
+    <t>0,047755</t>
+  </si>
+  <si>
+    <t>0,047428</t>
+  </si>
+  <si>
+    <t>0,047621</t>
+  </si>
+  <si>
+    <t>0,039835</t>
+  </si>
+  <si>
+    <t>0,048854</t>
   </si>
   <si>
     <t>0,048860</t>
   </si>
   <si>
-    <t>0,048858</t>
-  </si>
-  <si>
-    <t>0,018622</t>
-  </si>
-  <si>
-    <t>0,018468</t>
-  </si>
-  <si>
-    <t>0,018929</t>
+    <t>0,018705</t>
+  </si>
+  <si>
+    <t>0,018699</t>
   </si>
   <si>
     <t>0,011323</t>
   </si>
   <si>
-    <t>0,018650</t>
-  </si>
-  <si>
-    <t>0,018572</t>
-  </si>
-  <si>
-    <t>0,060160</t>
-  </si>
-  <si>
-    <t>0,060313</t>
-  </si>
-  <si>
-    <t>0,060207</t>
-  </si>
-  <si>
-    <t>0,060881</t>
-  </si>
-  <si>
-    <t>0,061678</t>
-  </si>
-  <si>
-    <t>0,061149</t>
+    <t>0,018908</t>
+  </si>
+  <si>
+    <t>0,018652</t>
+  </si>
+  <si>
+    <t>0,018573</t>
+  </si>
+  <si>
+    <t>0,053498</t>
+  </si>
+  <si>
+    <t>0,053434</t>
+  </si>
+  <si>
+    <t>0,035805</t>
+  </si>
+  <si>
+    <t>0,060561</t>
+  </si>
+  <si>
+    <t>0,061653</t>
+  </si>
+  <si>
+    <t>0,061156</t>
   </si>
 </sst>
 </file>
